--- a/app01/static/files/salesindicator_addform.xlsx
+++ b/app01/static/files/salesindicator_addform.xlsx
@@ -19,10 +19,94 @@
     <t>基本信息</t>
   </si>
   <si>
-    <t>1月销量指标(Kg)</t>
-  </si>
-  <si>
-    <t>1月销售额指标(￥)</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5158F8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月销量指标</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5158F8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5158F8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5158F8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF85197"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月销售额指标</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF85197"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF85197"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万元</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFF85197"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>成员</t>
@@ -75,12 +159,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +209,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,19 +316,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -161,104 +338,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <color rgb="FF5158F8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <color rgb="FFF85197"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -282,181 +380,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +666,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -591,15 +698,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -616,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,7 +1215,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/app01/static/files/salesindicator_addform.xlsx
+++ b/app01/static/files/salesindicator_addform.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
@@ -20,16 +20,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF5158F8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>月销量指标</t>
     </r>
     <r>
@@ -65,16 +55,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FFF85197"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>月销售额指标</t>
     </r>
     <r>
@@ -159,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -176,6 +156,13 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF5158F8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -197,13 +184,132 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FFF85197"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFF85197"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,146 +323,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF5158F8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FFF85197"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -374,31 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,151 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,16 +589,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -648,6 +637,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,43 +666,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,137 +706,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,18 +859,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1231,189 +1217,189 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:26">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:26">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>1900</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0</v>
-      </c>
-      <c r="S3" s="9">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0</v>
-      </c>
-      <c r="V3" s="9">
-        <v>0</v>
-      </c>
-      <c r="W3" s="9">
-        <v>0</v>
-      </c>
-      <c r="X3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="9">
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
         <v>0</v>
       </c>
     </row>
